--- a/results/wild-yeast-poolish.xlsx
+++ b/results/wild-yeast-poolish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI36"/>
+  <dimension ref="A1:AI56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,3747 +612,5887 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>419</v>
+        <v>3370.9</v>
       </c>
       <c r="C2" t="n">
-        <v>377</v>
+        <v>3033.6</v>
       </c>
       <c r="D2" t="n">
-        <v>345</v>
+        <v>2774.9</v>
       </c>
       <c r="E2" t="n">
-        <v>319</v>
+        <v>2568.7</v>
       </c>
       <c r="F2" t="n">
-        <v>298</v>
+        <v>2399.6</v>
       </c>
       <c r="G2" t="n">
-        <v>281</v>
+        <v>2257.7</v>
       </c>
       <c r="H2" t="n">
-        <v>188</v>
+        <v>1512.2</v>
       </c>
       <c r="I2" t="n">
+        <v>1196.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1012.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>890.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>801.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>732.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>678.3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>633.7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>596.2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>399.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>315.9</v>
+      </c>
+      <c r="S2" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>235.1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>211.6</v>
+      </c>
+      <c r="V2" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>167.3</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="Z2" t="n">
         <v>149</v>
       </c>
-      <c r="J2" t="n">
-        <v>126</v>
-      </c>
-      <c r="K2" t="n">
-        <v>111</v>
-      </c>
-      <c r="L2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91</v>
-      </c>
-      <c r="N2" t="n">
-        <v>84</v>
-      </c>
-      <c r="O2" t="n">
-        <v>79</v>
-      </c>
-      <c r="P2" t="n">
-        <v>74</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>50</v>
-      </c>
-      <c r="R2" t="n">
-        <v>39</v>
-      </c>
-      <c r="S2" t="n">
-        <v>33</v>
-      </c>
-      <c r="T2" t="n">
-        <v>29</v>
-      </c>
-      <c r="U2" t="n">
-        <v>26</v>
-      </c>
-      <c r="V2" t="n">
-        <v>24</v>
-      </c>
-      <c r="W2" t="n">
-        <v>22</v>
-      </c>
-      <c r="X2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>19</v>
-      </c>
       <c r="AA2" t="n">
-        <v>18</v>
+        <v>141.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>135.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>16</v>
+        <v>129.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>124.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>115.8</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>112.1</v>
       </c>
       <c r="AH2" t="n">
-        <v>14</v>
+        <v>108.6</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>385</v>
+        <v>2969</v>
       </c>
       <c r="C3" t="n">
-        <v>346</v>
+        <v>2671.9</v>
       </c>
       <c r="D3" t="n">
-        <v>317</v>
+        <v>2444.1</v>
       </c>
       <c r="E3" t="n">
-        <v>293</v>
+        <v>2262.4</v>
       </c>
       <c r="F3" t="n">
-        <v>274</v>
+        <v>2113.5</v>
       </c>
       <c r="G3" t="n">
-        <v>258</v>
+        <v>1988.6</v>
       </c>
       <c r="H3" t="n">
-        <v>173</v>
+        <v>1331.9</v>
       </c>
       <c r="I3" t="n">
-        <v>137</v>
+        <v>1053.5</v>
       </c>
       <c r="J3" t="n">
-        <v>116</v>
+        <v>892</v>
       </c>
       <c r="K3" t="n">
+        <v>784.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>705.6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>645.4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>597.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>558.1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>525.1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>351.7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>278.2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>235.6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>207.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>170.4</v>
+      </c>
+      <c r="W3" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="X3" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>138.7</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>119.2</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>114.2</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>109.7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="AF3" t="n">
         <v>102</v>
       </c>
-      <c r="L3" t="n">
-        <v>92</v>
-      </c>
-      <c r="M3" t="n">
-        <v>84</v>
-      </c>
-      <c r="N3" t="n">
-        <v>77</v>
-      </c>
-      <c r="O3" t="n">
-        <v>72</v>
-      </c>
-      <c r="P3" t="n">
-        <v>68</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>46</v>
-      </c>
-      <c r="R3" t="n">
-        <v>36</v>
-      </c>
-      <c r="S3" t="n">
-        <v>31</v>
-      </c>
-      <c r="T3" t="n">
-        <v>27</v>
-      </c>
-      <c r="U3" t="n">
-        <v>24</v>
-      </c>
-      <c r="V3" t="n">
-        <v>22</v>
-      </c>
-      <c r="W3" t="n">
-        <v>20</v>
-      </c>
-      <c r="X3" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>13</v>
-      </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>98.7</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>95.7</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>354</v>
+        <v>2623.1</v>
       </c>
       <c r="C4" t="n">
-        <v>319</v>
+        <v>2360.6</v>
       </c>
       <c r="D4" t="n">
-        <v>292</v>
+        <v>2159.3</v>
       </c>
       <c r="E4" t="n">
-        <v>270</v>
+        <v>1998.8</v>
       </c>
       <c r="F4" t="n">
-        <v>252</v>
+        <v>1867.2</v>
       </c>
       <c r="G4" t="n">
-        <v>237</v>
+        <v>1756.8</v>
       </c>
       <c r="H4" t="n">
-        <v>159</v>
+        <v>1176.7</v>
       </c>
       <c r="I4" t="n">
-        <v>126</v>
+        <v>930.7</v>
       </c>
       <c r="J4" t="n">
-        <v>106</v>
+        <v>788.1</v>
       </c>
       <c r="K4" t="n">
-        <v>94</v>
+        <v>692.7</v>
       </c>
       <c r="L4" t="n">
-        <v>84</v>
+        <v>623.4</v>
       </c>
       <c r="M4" t="n">
-        <v>77</v>
+        <v>570.2</v>
       </c>
       <c r="N4" t="n">
-        <v>71</v>
+        <v>527.8</v>
       </c>
       <c r="O4" t="n">
-        <v>67</v>
+        <v>493.1</v>
       </c>
       <c r="P4" t="n">
-        <v>63</v>
+        <v>463.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>42</v>
+        <v>310.7</v>
       </c>
       <c r="R4" t="n">
-        <v>33</v>
+        <v>245.8</v>
       </c>
       <c r="S4" t="n">
-        <v>28</v>
+        <v>208.1</v>
       </c>
       <c r="T4" t="n">
-        <v>25</v>
+        <v>182.9</v>
       </c>
       <c r="U4" t="n">
-        <v>22</v>
+        <v>164.6</v>
       </c>
       <c r="V4" t="n">
-        <v>20</v>
+        <v>150.6</v>
       </c>
       <c r="W4" t="n">
-        <v>19</v>
+        <v>139.4</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>130.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>122.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>16</v>
+        <v>115.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>110.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>14</v>
+        <v>105.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>100.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>87.2</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>84.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>11</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>326</v>
+        <v>2324.2</v>
       </c>
       <c r="C5" t="n">
-        <v>294</v>
+        <v>2091.6</v>
       </c>
       <c r="D5" t="n">
-        <v>269</v>
+        <v>1913.2</v>
       </c>
       <c r="E5" t="n">
-        <v>249</v>
+        <v>1771.1</v>
       </c>
       <c r="F5" t="n">
-        <v>232</v>
+        <v>1654.4</v>
       </c>
       <c r="G5" t="n">
-        <v>218</v>
+        <v>1556.6</v>
       </c>
       <c r="H5" t="n">
-        <v>146</v>
+        <v>1042.6</v>
       </c>
       <c r="I5" t="n">
-        <v>116</v>
+        <v>824.7</v>
       </c>
       <c r="J5" t="n">
-        <v>98</v>
+        <v>698.3</v>
       </c>
       <c r="K5" t="n">
-        <v>86</v>
+        <v>613.8</v>
       </c>
       <c r="L5" t="n">
-        <v>78</v>
+        <v>552.3</v>
       </c>
       <c r="M5" t="n">
-        <v>71</v>
+        <v>505.2</v>
       </c>
       <c r="N5" t="n">
-        <v>66</v>
+        <v>467.7</v>
       </c>
       <c r="O5" t="n">
-        <v>61</v>
+        <v>436.9</v>
       </c>
       <c r="P5" t="n">
-        <v>58</v>
+        <v>411.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>39</v>
+        <v>275.3</v>
       </c>
       <c r="R5" t="n">
-        <v>31</v>
+        <v>217.8</v>
       </c>
       <c r="S5" t="n">
-        <v>26</v>
+        <v>184.4</v>
       </c>
       <c r="T5" t="n">
-        <v>23</v>
+        <v>162.1</v>
       </c>
       <c r="U5" t="n">
-        <v>20</v>
+        <v>145.9</v>
       </c>
       <c r="V5" t="n">
-        <v>19</v>
+        <v>133.4</v>
       </c>
       <c r="W5" t="n">
-        <v>17</v>
+        <v>123.5</v>
       </c>
       <c r="X5" t="n">
-        <v>16</v>
+        <v>115.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>108.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>14</v>
+        <v>102.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>14</v>
+        <v>97.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>93.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>82.7</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>77.3</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>301</v>
+        <v>2065.1</v>
       </c>
       <c r="C6" t="n">
-        <v>271</v>
+        <v>1858.4</v>
       </c>
       <c r="D6" t="n">
-        <v>248</v>
+        <v>1699.9</v>
       </c>
       <c r="E6" t="n">
-        <v>229</v>
+        <v>1573.6</v>
       </c>
       <c r="F6" t="n">
-        <v>214</v>
+        <v>1470</v>
       </c>
       <c r="G6" t="n">
-        <v>201</v>
+        <v>1383.1</v>
       </c>
       <c r="H6" t="n">
-        <v>135</v>
+        <v>926.4</v>
       </c>
       <c r="I6" t="n">
-        <v>107</v>
+        <v>732.7</v>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>620.4</v>
       </c>
       <c r="K6" t="n">
-        <v>79</v>
+        <v>545.3</v>
       </c>
       <c r="L6" t="n">
+        <v>490.8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>448.9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>415.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>388.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>365.3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>244.6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>144</v>
+      </c>
+      <c r="U6" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="V6" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>109.7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="AF6" t="n">
         <v>71</v>
       </c>
-      <c r="M6" t="n">
-        <v>65</v>
-      </c>
-      <c r="N6" t="n">
-        <v>61</v>
-      </c>
-      <c r="O6" t="n">
-        <v>57</v>
-      </c>
-      <c r="P6" t="n">
-        <v>53</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>36</v>
-      </c>
-      <c r="R6" t="n">
-        <v>28</v>
-      </c>
-      <c r="S6" t="n">
-        <v>24</v>
-      </c>
-      <c r="T6" t="n">
-        <v>21</v>
-      </c>
-      <c r="U6" t="n">
-        <v>19</v>
-      </c>
-      <c r="V6" t="n">
-        <v>17</v>
-      </c>
-      <c r="W6" t="n">
-        <v>16</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>10</v>
-      </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>68.7</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>66.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>64.59999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>278</v>
+        <v>1839.7</v>
       </c>
       <c r="C7" t="n">
-        <v>250</v>
+        <v>1655.6</v>
       </c>
       <c r="D7" t="n">
-        <v>229</v>
+        <v>1514.4</v>
       </c>
       <c r="E7" t="n">
-        <v>212</v>
+        <v>1401.9</v>
       </c>
       <c r="F7" t="n">
-        <v>198</v>
+        <v>1309.6</v>
       </c>
       <c r="G7" t="n">
-        <v>186</v>
+        <v>1232.2</v>
       </c>
       <c r="H7" t="n">
-        <v>125</v>
+        <v>825.3</v>
       </c>
       <c r="I7" t="n">
-        <v>99</v>
+        <v>652.8</v>
       </c>
       <c r="J7" t="n">
-        <v>83</v>
+        <v>552.7</v>
       </c>
       <c r="K7" t="n">
-        <v>73</v>
+        <v>485.8</v>
       </c>
       <c r="L7" t="n">
-        <v>66</v>
+        <v>437.2</v>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>399.9</v>
       </c>
       <c r="N7" t="n">
-        <v>56</v>
+        <v>370.2</v>
       </c>
       <c r="O7" t="n">
-        <v>52</v>
+        <v>345.8</v>
       </c>
       <c r="P7" t="n">
-        <v>49</v>
+        <v>325.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>33</v>
+        <v>217.9</v>
       </c>
       <c r="R7" t="n">
-        <v>26</v>
+        <v>172.4</v>
       </c>
       <c r="S7" t="n">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="T7" t="n">
-        <v>19</v>
+        <v>128.3</v>
       </c>
       <c r="U7" t="n">
-        <v>17</v>
+        <v>115.5</v>
       </c>
       <c r="V7" t="n">
-        <v>16</v>
+        <v>105.6</v>
       </c>
       <c r="W7" t="n">
-        <v>15</v>
+        <v>97.8</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>91.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>81.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>12</v>
+        <v>77.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>73.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>70.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>65.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>63.2</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>61.2</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>59.3</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B8" t="n">
-        <v>257</v>
+        <v>1643.2</v>
       </c>
       <c r="C8" t="n">
-        <v>231</v>
+        <v>1478.7</v>
       </c>
       <c r="D8" t="n">
-        <v>211</v>
+        <v>1352.6</v>
       </c>
       <c r="E8" t="n">
-        <v>196</v>
+        <v>1252.1</v>
       </c>
       <c r="F8" t="n">
-        <v>183</v>
+        <v>1169.7</v>
       </c>
       <c r="G8" t="n">
-        <v>172</v>
+        <v>1100.5</v>
       </c>
       <c r="H8" t="n">
-        <v>115</v>
+        <v>737.1</v>
       </c>
       <c r="I8" t="n">
-        <v>91</v>
+        <v>583</v>
       </c>
       <c r="J8" t="n">
-        <v>77</v>
+        <v>493.7</v>
       </c>
       <c r="K8" t="n">
-        <v>68</v>
+        <v>433.9</v>
       </c>
       <c r="L8" t="n">
-        <v>61</v>
+        <v>390.5</v>
       </c>
       <c r="M8" t="n">
-        <v>56</v>
+        <v>357.2</v>
       </c>
       <c r="N8" t="n">
-        <v>52</v>
+        <v>330.7</v>
       </c>
       <c r="O8" t="n">
-        <v>48</v>
+        <v>308.9</v>
       </c>
       <c r="P8" t="n">
-        <v>45</v>
+        <v>290.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>30</v>
+        <v>194.7</v>
       </c>
       <c r="R8" t="n">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="S8" t="n">
-        <v>20</v>
+        <v>130.4</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>114.6</v>
       </c>
       <c r="U8" t="n">
-        <v>16</v>
+        <v>103.1</v>
       </c>
       <c r="V8" t="n">
-        <v>15</v>
+        <v>94.3</v>
       </c>
       <c r="W8" t="n">
-        <v>14</v>
+        <v>87.3</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>76.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="AB8" t="n">
-        <v>10</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>63.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>60.7</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>58.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>56.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>54.6</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="AI8" t="n">
-        <v>8</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>238</v>
+        <v>1471.2</v>
       </c>
       <c r="C9" t="n">
-        <v>214</v>
+        <v>1323.9</v>
       </c>
       <c r="D9" t="n">
-        <v>196</v>
+        <v>1211</v>
       </c>
       <c r="E9" t="n">
-        <v>181</v>
+        <v>1121</v>
       </c>
       <c r="F9" t="n">
-        <v>169</v>
+        <v>1047.2</v>
       </c>
       <c r="G9" t="n">
-        <v>159</v>
+        <v>985.3</v>
       </c>
       <c r="H9" t="n">
-        <v>107</v>
+        <v>659.9</v>
       </c>
       <c r="I9" t="n">
-        <v>84</v>
+        <v>522</v>
       </c>
       <c r="J9" t="n">
-        <v>71</v>
+        <v>442</v>
       </c>
       <c r="K9" t="n">
-        <v>63</v>
+        <v>388.5</v>
       </c>
       <c r="L9" t="n">
-        <v>56</v>
+        <v>349.6</v>
       </c>
       <c r="M9" t="n">
-        <v>52</v>
+        <v>319.8</v>
       </c>
       <c r="N9" t="n">
-        <v>48</v>
+        <v>296</v>
       </c>
       <c r="O9" t="n">
-        <v>45</v>
+        <v>276.5</v>
       </c>
       <c r="P9" t="n">
-        <v>42</v>
+        <v>260.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>28</v>
+        <v>174.3</v>
       </c>
       <c r="R9" t="n">
-        <v>22</v>
+        <v>137.9</v>
       </c>
       <c r="S9" t="n">
-        <v>19</v>
+        <v>116.7</v>
       </c>
       <c r="T9" t="n">
-        <v>17</v>
+        <v>102.6</v>
       </c>
       <c r="U9" t="n">
-        <v>15</v>
+        <v>92.3</v>
       </c>
       <c r="V9" t="n">
-        <v>14</v>
+        <v>84.5</v>
       </c>
       <c r="W9" t="n">
-        <v>13</v>
+        <v>78.2</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>68.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="AA9" t="n">
-        <v>10</v>
+        <v>61.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>56.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>54.4</v>
       </c>
       <c r="AE9" t="n">
-        <v>8</v>
+        <v>52.4</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>50.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>48.9</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>47.4</v>
       </c>
       <c r="AI9" t="n">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>220</v>
+        <v>1320.2</v>
       </c>
       <c r="C10" t="n">
-        <v>198</v>
+        <v>1188.1</v>
       </c>
       <c r="D10" t="n">
-        <v>181</v>
+        <v>1086.8</v>
       </c>
       <c r="E10" t="n">
-        <v>168</v>
+        <v>1006</v>
       </c>
       <c r="F10" t="n">
-        <v>157</v>
+        <v>939.8</v>
       </c>
       <c r="G10" t="n">
-        <v>148</v>
+        <v>884.2</v>
       </c>
       <c r="H10" t="n">
-        <v>99</v>
+        <v>592.2</v>
       </c>
       <c r="I10" t="n">
-        <v>78</v>
+        <v>468.5</v>
       </c>
       <c r="J10" t="n">
-        <v>66</v>
+        <v>396.7</v>
       </c>
       <c r="K10" t="n">
-        <v>58</v>
+        <v>348.6</v>
       </c>
       <c r="L10" t="n">
-        <v>52</v>
+        <v>313.8</v>
       </c>
       <c r="M10" t="n">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c r="N10" t="n">
-        <v>44</v>
+        <v>265.7</v>
       </c>
       <c r="O10" t="n">
-        <v>41</v>
+        <v>248.2</v>
       </c>
       <c r="P10" t="n">
-        <v>39</v>
+        <v>233.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>26</v>
+        <v>156.4</v>
       </c>
       <c r="R10" t="n">
-        <v>21</v>
+        <v>123.7</v>
       </c>
       <c r="S10" t="n">
-        <v>17</v>
+        <v>104.7</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="U10" t="n">
-        <v>14</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="V10" t="n">
-        <v>13</v>
+        <v>75.8</v>
       </c>
       <c r="W10" t="n">
-        <v>12</v>
+        <v>70.2</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>65.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>61.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>10</v>
+        <v>58.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>9</v>
+        <v>55.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>50.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>48.8</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>45.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>43.9</v>
       </c>
       <c r="AH10" t="n">
-        <v>7</v>
+        <v>42.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>204</v>
+        <v>1187.4</v>
       </c>
       <c r="C11" t="n">
-        <v>184</v>
+        <v>1068.6</v>
       </c>
       <c r="D11" t="n">
-        <v>168</v>
+        <v>977.5</v>
       </c>
       <c r="E11" t="n">
-        <v>156</v>
+        <v>904.8</v>
       </c>
       <c r="F11" t="n">
-        <v>145</v>
+        <v>845.3</v>
       </c>
       <c r="G11" t="n">
-        <v>137</v>
+        <v>795.3</v>
       </c>
       <c r="H11" t="n">
-        <v>92</v>
+        <v>532.7</v>
       </c>
       <c r="I11" t="n">
-        <v>73</v>
+        <v>421.3</v>
       </c>
       <c r="J11" t="n">
-        <v>61</v>
+        <v>356.8</v>
       </c>
       <c r="K11" t="n">
-        <v>54</v>
+        <v>313.6</v>
       </c>
       <c r="L11" t="n">
-        <v>49</v>
+        <v>282.2</v>
       </c>
       <c r="M11" t="n">
-        <v>44</v>
+        <v>258.1</v>
       </c>
       <c r="N11" t="n">
-        <v>41</v>
+        <v>238.9</v>
       </c>
       <c r="O11" t="n">
-        <v>38</v>
+        <v>223.2</v>
       </c>
       <c r="P11" t="n">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="Q11" t="n">
-        <v>24</v>
+        <v>140.7</v>
       </c>
       <c r="R11" t="n">
-        <v>19</v>
+        <v>111.3</v>
       </c>
       <c r="S11" t="n">
-        <v>16</v>
+        <v>94.2</v>
       </c>
       <c r="T11" t="n">
-        <v>14</v>
+        <v>82.8</v>
       </c>
       <c r="U11" t="n">
-        <v>13</v>
+        <v>74.5</v>
       </c>
       <c r="V11" t="n">
-        <v>12</v>
+        <v>68.2</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>63.1</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>58.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>55.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>52.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>9</v>
+        <v>49.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>8</v>
+        <v>47.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>45.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>43.9</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>42.3</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>40.8</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>39.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>7</v>
+        <v>38.3</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>190</v>
+        <v>1070.3</v>
       </c>
       <c r="C12" t="n">
-        <v>171</v>
+        <v>963.2</v>
       </c>
       <c r="D12" t="n">
-        <v>156</v>
+        <v>881</v>
       </c>
       <c r="E12" t="n">
-        <v>145</v>
+        <v>815.6</v>
       </c>
       <c r="F12" t="n">
-        <v>135</v>
+        <v>761.9</v>
       </c>
       <c r="G12" t="n">
-        <v>127</v>
+        <v>716.8</v>
       </c>
       <c r="H12" t="n">
-        <v>85</v>
+        <v>480.1</v>
       </c>
       <c r="I12" t="n">
-        <v>67</v>
+        <v>379.8</v>
       </c>
       <c r="J12" t="n">
-        <v>57</v>
+        <v>321.6</v>
       </c>
       <c r="K12" t="n">
+        <v>282.6</v>
+      </c>
+      <c r="L12" t="n">
+        <v>254.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>232.7</v>
+      </c>
+      <c r="N12" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>201.2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>189.3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="R12" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="T12" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="U12" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="W12" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="X12" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="Y12" t="n">
         <v>50</v>
       </c>
-      <c r="L12" t="n">
+      <c r="Z12" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="AA12" t="n">
         <v>45</v>
       </c>
-      <c r="M12" t="n">
-        <v>41</v>
-      </c>
-      <c r="N12" t="n">
-        <v>38</v>
-      </c>
-      <c r="O12" t="n">
-        <v>36</v>
-      </c>
-      <c r="P12" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>22</v>
-      </c>
-      <c r="R12" t="n">
-        <v>18</v>
-      </c>
-      <c r="S12" t="n">
-        <v>15</v>
-      </c>
-      <c r="T12" t="n">
-        <v>13</v>
-      </c>
-      <c r="U12" t="n">
-        <v>12</v>
-      </c>
-      <c r="V12" t="n">
-        <v>11</v>
-      </c>
-      <c r="W12" t="n">
-        <v>10</v>
-      </c>
-      <c r="X12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>8</v>
-      </c>
       <c r="AB12" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>41.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>39.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>38.1</v>
       </c>
       <c r="AF12" t="n">
-        <v>7</v>
+        <v>36.8</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>35.6</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>34.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>6</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>176</v>
+        <v>966.7</v>
       </c>
       <c r="C13" t="n">
-        <v>159</v>
+        <v>869.9</v>
       </c>
       <c r="D13" t="n">
-        <v>145</v>
+        <v>795.8</v>
       </c>
       <c r="E13" t="n">
-        <v>134</v>
+        <v>736.6</v>
       </c>
       <c r="F13" t="n">
-        <v>126</v>
+        <v>688.1</v>
       </c>
       <c r="G13" t="n">
-        <v>118</v>
+        <v>647.4</v>
       </c>
       <c r="H13" t="n">
-        <v>79</v>
+        <v>433.6</v>
       </c>
       <c r="I13" t="n">
-        <v>63</v>
+        <v>343</v>
       </c>
       <c r="J13" t="n">
-        <v>53</v>
+        <v>290.4</v>
       </c>
       <c r="K13" t="n">
-        <v>47</v>
+        <v>255.3</v>
       </c>
       <c r="L13" t="n">
-        <v>42</v>
+        <v>229.7</v>
       </c>
       <c r="M13" t="n">
-        <v>38</v>
+        <v>210.1</v>
       </c>
       <c r="N13" t="n">
-        <v>35</v>
+        <v>194.5</v>
       </c>
       <c r="O13" t="n">
-        <v>33</v>
+        <v>181.7</v>
       </c>
       <c r="P13" t="n">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="Q13" t="n">
-        <v>21</v>
+        <v>114.5</v>
       </c>
       <c r="R13" t="n">
-        <v>17</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>14</v>
+        <v>76.7</v>
       </c>
       <c r="T13" t="n">
-        <v>12</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="U13" t="n">
-        <v>11</v>
+        <v>60.7</v>
       </c>
       <c r="V13" t="n">
-        <v>10</v>
+        <v>55.5</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>51.4</v>
       </c>
       <c r="X13" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="Y13" t="n">
-        <v>8</v>
+        <v>45.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>8</v>
+        <v>42.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>7</v>
+        <v>40.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>7</v>
+        <v>38.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>37.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>35.7</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>34.4</v>
       </c>
       <c r="AF13" t="n">
-        <v>6</v>
+        <v>33.2</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>32.1</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>31.2</v>
       </c>
       <c r="AI13" t="n">
-        <v>6</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>164</v>
+        <v>874.8</v>
       </c>
       <c r="C14" t="n">
-        <v>148</v>
+        <v>787.3</v>
       </c>
       <c r="D14" t="n">
-        <v>135</v>
+        <v>720.1</v>
       </c>
       <c r="E14" t="n">
-        <v>125</v>
+        <v>666.6</v>
       </c>
       <c r="F14" t="n">
-        <v>117</v>
+        <v>622.7</v>
       </c>
       <c r="G14" t="n">
-        <v>110</v>
+        <v>585.9</v>
       </c>
       <c r="H14" t="n">
-        <v>74</v>
+        <v>392.4</v>
       </c>
       <c r="I14" t="n">
-        <v>58</v>
+        <v>310.4</v>
       </c>
       <c r="J14" t="n">
-        <v>49</v>
+        <v>262.8</v>
       </c>
       <c r="K14" t="n">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="L14" t="n">
-        <v>39</v>
+        <v>207.9</v>
       </c>
       <c r="M14" t="n">
-        <v>36</v>
+        <v>190.2</v>
       </c>
       <c r="N14" t="n">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="O14" t="n">
-        <v>31</v>
+        <v>164.5</v>
       </c>
       <c r="P14" t="n">
-        <v>29</v>
+        <v>154.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>19</v>
+        <v>103.6</v>
       </c>
       <c r="R14" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="S14" t="n">
-        <v>13</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="T14" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="U14" t="n">
-        <v>10</v>
+        <v>54.9</v>
       </c>
       <c r="V14" t="n">
-        <v>9</v>
+        <v>50.2</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>46.5</v>
       </c>
       <c r="X14" t="n">
-        <v>8</v>
+        <v>43.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>8</v>
+        <v>40.9</v>
       </c>
       <c r="Z14" t="n">
-        <v>7</v>
+        <v>38.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>7</v>
+        <v>36.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>7</v>
+        <v>35.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>6</v>
+        <v>33.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>32.3</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>31.1</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>30.1</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>29.1</v>
       </c>
       <c r="AH14" t="n">
-        <v>5</v>
+        <v>28.2</v>
       </c>
       <c r="AI14" t="n">
-        <v>5</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>153</v>
+        <v>793.2</v>
       </c>
       <c r="C15" t="n">
-        <v>138</v>
+        <v>713.8</v>
       </c>
       <c r="D15" t="n">
-        <v>126</v>
+        <v>653</v>
       </c>
       <c r="E15" t="n">
-        <v>117</v>
+        <v>604.4</v>
       </c>
       <c r="F15" t="n">
-        <v>109</v>
+        <v>564.6</v>
       </c>
       <c r="G15" t="n">
-        <v>102</v>
+        <v>531.3</v>
       </c>
       <c r="H15" t="n">
-        <v>69</v>
+        <v>355.8</v>
       </c>
       <c r="I15" t="n">
-        <v>54</v>
+        <v>281.5</v>
       </c>
       <c r="J15" t="n">
-        <v>46</v>
+        <v>238.3</v>
       </c>
       <c r="K15" t="n">
-        <v>40</v>
+        <v>209.5</v>
       </c>
       <c r="L15" t="n">
-        <v>36</v>
+        <v>188.5</v>
       </c>
       <c r="M15" t="n">
-        <v>33</v>
+        <v>172.4</v>
       </c>
       <c r="N15" t="n">
-        <v>31</v>
+        <v>159.6</v>
       </c>
       <c r="O15" t="n">
-        <v>29</v>
+        <v>149.1</v>
       </c>
       <c r="P15" t="n">
-        <v>27</v>
+        <v>140.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="R15" t="n">
-        <v>14</v>
+        <v>74.3</v>
       </c>
       <c r="S15" t="n">
-        <v>12</v>
+        <v>62.9</v>
       </c>
       <c r="T15" t="n">
-        <v>11</v>
+        <v>55.3</v>
       </c>
       <c r="U15" t="n">
-        <v>10</v>
+        <v>49.8</v>
       </c>
       <c r="V15" t="n">
-        <v>9</v>
+        <v>45.5</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>42.2</v>
       </c>
       <c r="X15" t="n">
-        <v>8</v>
+        <v>39.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="Z15" t="n">
-        <v>7</v>
+        <v>35.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>6</v>
+        <v>33.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>6</v>
+        <v>31.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>6</v>
+        <v>30.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>29.3</v>
       </c>
       <c r="AE15" t="n">
-        <v>5</v>
+        <v>28.2</v>
       </c>
       <c r="AF15" t="n">
-        <v>5</v>
+        <v>27.3</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>26.4</v>
       </c>
       <c r="AH15" t="n">
-        <v>5</v>
+        <v>25.6</v>
       </c>
       <c r="AI15" t="n">
-        <v>5</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B16" t="n">
-        <v>143</v>
+        <v>720.5</v>
       </c>
       <c r="C16" t="n">
-        <v>128</v>
+        <v>648.4</v>
       </c>
       <c r="D16" t="n">
-        <v>117</v>
+        <v>593.1</v>
       </c>
       <c r="E16" t="n">
-        <v>109</v>
+        <v>549.1</v>
       </c>
       <c r="F16" t="n">
-        <v>102</v>
+        <v>512.9</v>
       </c>
       <c r="G16" t="n">
-        <v>96</v>
+        <v>482.6</v>
       </c>
       <c r="H16" t="n">
-        <v>64</v>
+        <v>323.2</v>
       </c>
       <c r="I16" t="n">
-        <v>51</v>
+        <v>255.7</v>
       </c>
       <c r="J16" t="n">
-        <v>43</v>
+        <v>216.5</v>
       </c>
       <c r="K16" t="n">
-        <v>38</v>
+        <v>190.3</v>
       </c>
       <c r="L16" t="n">
-        <v>34</v>
+        <v>171.2</v>
       </c>
       <c r="M16" t="n">
-        <v>31</v>
+        <v>156.6</v>
       </c>
       <c r="N16" t="n">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="O16" t="n">
-        <v>27</v>
+        <v>135.4</v>
       </c>
       <c r="P16" t="n">
-        <v>25</v>
+        <v>127.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>17</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="R16" t="n">
-        <v>13</v>
+        <v>67.5</v>
       </c>
       <c r="S16" t="n">
-        <v>11</v>
+        <v>57.2</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>50.2</v>
       </c>
       <c r="U16" t="n">
-        <v>9</v>
+        <v>45.2</v>
       </c>
       <c r="V16" t="n">
-        <v>8</v>
+        <v>41.4</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>38.3</v>
       </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>35.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>7</v>
+        <v>33.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>6</v>
+        <v>31.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>6</v>
+        <v>30.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>6</v>
+        <v>28.9</v>
       </c>
       <c r="AC16" t="n">
-        <v>5</v>
+        <v>27.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>26.6</v>
       </c>
       <c r="AE16" t="n">
-        <v>5</v>
+        <v>25.6</v>
       </c>
       <c r="AF16" t="n">
-        <v>5</v>
+        <v>24.8</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AH16" t="n">
-        <v>5</v>
+        <v>23.2</v>
       </c>
       <c r="AI16" t="n">
-        <v>4</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>133</v>
+        <v>655.7</v>
       </c>
       <c r="C17" t="n">
-        <v>120</v>
+        <v>590.1</v>
       </c>
       <c r="D17" t="n">
-        <v>110</v>
+        <v>539.7</v>
       </c>
       <c r="E17" t="n">
-        <v>101</v>
+        <v>499.6</v>
       </c>
       <c r="F17" t="n">
-        <v>95</v>
+        <v>466.7</v>
       </c>
       <c r="G17" t="n">
-        <v>89</v>
+        <v>439.1</v>
       </c>
       <c r="H17" t="n">
-        <v>60</v>
+        <v>294.1</v>
       </c>
       <c r="I17" t="n">
-        <v>47</v>
+        <v>232.6</v>
       </c>
       <c r="J17" t="n">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="K17" t="n">
-        <v>35</v>
+        <v>173.1</v>
       </c>
       <c r="L17" t="n">
-        <v>32</v>
+        <v>155.8</v>
       </c>
       <c r="M17" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>123.3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>116</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="R17" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>52</v>
+      </c>
+      <c r="T17" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="U17" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="W17" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="Z17" t="n">
         <v>29</v>
       </c>
-      <c r="N17" t="n">
-        <v>27</v>
-      </c>
-      <c r="O17" t="n">
-        <v>25</v>
-      </c>
-      <c r="P17" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>16</v>
-      </c>
-      <c r="R17" t="n">
-        <v>12</v>
-      </c>
-      <c r="S17" t="n">
-        <v>11</v>
-      </c>
-      <c r="T17" t="n">
-        <v>9</v>
-      </c>
-      <c r="U17" t="n">
-        <v>8</v>
-      </c>
-      <c r="V17" t="n">
-        <v>8</v>
-      </c>
-      <c r="W17" t="n">
-        <v>7</v>
-      </c>
-      <c r="X17" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>6</v>
-      </c>
       <c r="AA17" t="n">
-        <v>6</v>
+        <v>27.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>5</v>
+        <v>26.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>5</v>
+        <v>25.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>24.2</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>23.3</v>
       </c>
       <c r="AF17" t="n">
-        <v>5</v>
+        <v>22.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>21.8</v>
       </c>
       <c r="AH17" t="n">
-        <v>4</v>
+        <v>21.1</v>
       </c>
       <c r="AI17" t="n">
-        <v>4</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>124</v>
+        <v>597.6</v>
       </c>
       <c r="C18" t="n">
-        <v>112</v>
+        <v>537.8</v>
       </c>
       <c r="D18" t="n">
-        <v>102</v>
+        <v>492</v>
       </c>
       <c r="E18" t="n">
-        <v>95</v>
+        <v>455.4</v>
       </c>
       <c r="F18" t="n">
-        <v>89</v>
+        <v>425.4</v>
       </c>
       <c r="G18" t="n">
-        <v>83</v>
+        <v>400.3</v>
       </c>
       <c r="H18" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>212.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>142</v>
+      </c>
+      <c r="M18" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="N18" t="n">
+        <v>120.3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="R18" t="n">
         <v>56</v>
       </c>
-      <c r="I18" t="n">
-        <v>44</v>
-      </c>
-      <c r="J18" t="n">
-        <v>37</v>
-      </c>
-      <c r="K18" t="n">
-        <v>33</v>
-      </c>
-      <c r="L18" t="n">
-        <v>30</v>
-      </c>
-      <c r="M18" t="n">
-        <v>27</v>
-      </c>
-      <c r="N18" t="n">
-        <v>25</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="S18" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="U18" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="W18" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC18" t="n">
         <v>23</v>
       </c>
-      <c r="P18" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>15</v>
-      </c>
-      <c r="R18" t="n">
-        <v>12</v>
-      </c>
-      <c r="S18" t="n">
-        <v>10</v>
-      </c>
-      <c r="T18" t="n">
-        <v>9</v>
-      </c>
-      <c r="U18" t="n">
-        <v>8</v>
-      </c>
-      <c r="V18" t="n">
-        <v>7</v>
-      </c>
-      <c r="W18" t="n">
-        <v>7</v>
-      </c>
-      <c r="X18" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>5</v>
-      </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>22.1</v>
       </c>
       <c r="AE18" t="n">
-        <v>4</v>
+        <v>21.3</v>
       </c>
       <c r="AF18" t="n">
-        <v>4</v>
+        <v>20.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>19.9</v>
       </c>
       <c r="AH18" t="n">
-        <v>4</v>
+        <v>19.3</v>
       </c>
       <c r="AI18" t="n">
-        <v>4</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B19" t="n">
-        <v>116</v>
+        <v>545.7</v>
       </c>
       <c r="C19" t="n">
-        <v>105</v>
+        <v>491.1</v>
       </c>
       <c r="D19" t="n">
-        <v>96</v>
+        <v>449.2</v>
       </c>
       <c r="E19" t="n">
-        <v>89</v>
+        <v>415.8</v>
       </c>
       <c r="F19" t="n">
-        <v>83</v>
+        <v>388.4</v>
       </c>
       <c r="G19" t="n">
-        <v>78</v>
+        <v>365.5</v>
       </c>
       <c r="H19" t="n">
-        <v>52</v>
+        <v>244.8</v>
       </c>
       <c r="I19" t="n">
-        <v>41</v>
+        <v>193.6</v>
       </c>
       <c r="J19" t="n">
-        <v>35</v>
+        <v>163.9</v>
       </c>
       <c r="K19" t="n">
-        <v>31</v>
+        <v>144.1</v>
       </c>
       <c r="L19" t="n">
-        <v>28</v>
+        <v>129.7</v>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>118.6</v>
       </c>
       <c r="N19" t="n">
-        <v>23</v>
+        <v>109.8</v>
       </c>
       <c r="O19" t="n">
-        <v>22</v>
+        <v>102.6</v>
       </c>
       <c r="P19" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="R19" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="W19" t="n">
+        <v>29</v>
+      </c>
+      <c r="X19" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="AC19" t="n">
         <v>21</v>
       </c>
-      <c r="Q19" t="n">
-        <v>14</v>
-      </c>
-      <c r="R19" t="n">
-        <v>11</v>
-      </c>
-      <c r="S19" t="n">
-        <v>9</v>
-      </c>
-      <c r="T19" t="n">
-        <v>8</v>
-      </c>
-      <c r="U19" t="n">
-        <v>7</v>
-      </c>
-      <c r="V19" t="n">
-        <v>7</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6</v>
-      </c>
-      <c r="X19" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>4</v>
-      </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>20.2</v>
       </c>
       <c r="AE19" t="n">
-        <v>4</v>
+        <v>19.4</v>
       </c>
       <c r="AF19" t="n">
-        <v>4</v>
+        <v>18.8</v>
       </c>
       <c r="AG19" t="n">
-        <v>4</v>
+        <v>18.1</v>
       </c>
       <c r="AH19" t="n">
-        <v>4</v>
+        <v>17.6</v>
       </c>
       <c r="AI19" t="n">
-        <v>4</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>109</v>
+        <v>499</v>
       </c>
       <c r="C20" t="n">
-        <v>98</v>
+        <v>449.1</v>
       </c>
       <c r="D20" t="n">
-        <v>90</v>
+        <v>410.8</v>
       </c>
       <c r="E20" t="n">
-        <v>83</v>
+        <v>380.2</v>
       </c>
       <c r="F20" t="n">
-        <v>77</v>
+        <v>355.2</v>
       </c>
       <c r="G20" t="n">
-        <v>73</v>
+        <v>334.2</v>
       </c>
       <c r="H20" t="n">
-        <v>49</v>
+        <v>223.8</v>
       </c>
       <c r="I20" t="n">
-        <v>39</v>
+        <v>177.1</v>
       </c>
       <c r="J20" t="n">
-        <v>33</v>
+        <v>149.9</v>
       </c>
       <c r="K20" t="n">
-        <v>29</v>
+        <v>131.8</v>
       </c>
       <c r="L20" t="n">
-        <v>26</v>
+        <v>118.6</v>
       </c>
       <c r="M20" t="n">
-        <v>24</v>
+        <v>108.5</v>
       </c>
       <c r="N20" t="n">
-        <v>22</v>
+        <v>100.4</v>
       </c>
       <c r="O20" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="P20" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="T20" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="U20" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="W20" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB20" t="n">
         <v>20</v>
       </c>
-      <c r="P20" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>13</v>
-      </c>
-      <c r="R20" t="n">
-        <v>10</v>
-      </c>
-      <c r="S20" t="n">
-        <v>9</v>
-      </c>
-      <c r="T20" t="n">
-        <v>8</v>
-      </c>
-      <c r="U20" t="n">
-        <v>7</v>
-      </c>
-      <c r="V20" t="n">
-        <v>6</v>
-      </c>
-      <c r="W20" t="n">
-        <v>6</v>
-      </c>
-      <c r="X20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>4</v>
-      </c>
       <c r="AC20" t="n">
-        <v>4</v>
+        <v>19.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>18.4</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>17.8</v>
       </c>
       <c r="AF20" t="n">
-        <v>4</v>
+        <v>17.1</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>16.6</v>
       </c>
       <c r="AH20" t="n">
-        <v>4</v>
+        <v>16.1</v>
       </c>
       <c r="AI20" t="n">
-        <v>3</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>102</v>
+        <v>457</v>
       </c>
       <c r="C21" t="n">
+        <v>411.3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>348.2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>325.3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>306.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>205</v>
+      </c>
+      <c r="I21" t="n">
+        <v>162.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>137.3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="N21" t="n">
         <v>92</v>
       </c>
-      <c r="D21" t="n">
-        <v>84</v>
-      </c>
-      <c r="E21" t="n">
-        <v>78</v>
-      </c>
-      <c r="F21" t="n">
-        <v>73</v>
-      </c>
-      <c r="G21" t="n">
-        <v>68</v>
-      </c>
-      <c r="H21" t="n">
-        <v>46</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>31</v>
-      </c>
-      <c r="K21" t="n">
-        <v>27</v>
-      </c>
-      <c r="L21" t="n">
-        <v>24</v>
-      </c>
-      <c r="M21" t="n">
-        <v>22</v>
-      </c>
-      <c r="N21" t="n">
-        <v>21</v>
-      </c>
       <c r="O21" t="n">
-        <v>19</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="P21" t="n">
-        <v>18</v>
+        <v>80.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>12</v>
+        <v>54.1</v>
       </c>
       <c r="R21" t="n">
-        <v>10</v>
+        <v>42.8</v>
       </c>
       <c r="S21" t="n">
-        <v>8</v>
+        <v>36.3</v>
       </c>
       <c r="T21" t="n">
-        <v>7</v>
+        <v>31.9</v>
       </c>
       <c r="U21" t="n">
-        <v>6</v>
+        <v>28.7</v>
       </c>
       <c r="V21" t="n">
-        <v>6</v>
+        <v>26.2</v>
       </c>
       <c r="W21" t="n">
-        <v>5</v>
+        <v>24.3</v>
       </c>
       <c r="X21" t="n">
-        <v>5</v>
+        <v>22.7</v>
       </c>
       <c r="Y21" t="n">
-        <v>5</v>
+        <v>21.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>5</v>
+        <v>20.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>4</v>
+        <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>4</v>
+        <v>18.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>4</v>
+        <v>17.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>16.9</v>
       </c>
       <c r="AE21" t="n">
-        <v>4</v>
+        <v>16.3</v>
       </c>
       <c r="AF21" t="n">
-        <v>4</v>
+        <v>15.7</v>
       </c>
       <c r="AG21" t="n">
-        <v>3</v>
+        <v>15.2</v>
       </c>
       <c r="AH21" t="n">
-        <v>3</v>
+        <v>14.7</v>
       </c>
       <c r="AI21" t="n">
-        <v>3</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>96</v>
+        <v>419.2</v>
       </c>
       <c r="C22" t="n">
-        <v>86</v>
+        <v>377.2</v>
       </c>
       <c r="D22" t="n">
-        <v>79</v>
+        <v>345.1</v>
       </c>
       <c r="E22" t="n">
-        <v>73</v>
+        <v>319.4</v>
       </c>
       <c r="F22" t="n">
-        <v>68</v>
+        <v>298.4</v>
       </c>
       <c r="G22" t="n">
-        <v>64</v>
+        <v>280.7</v>
       </c>
       <c r="H22" t="n">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="I22" t="n">
-        <v>34</v>
+        <v>148.7</v>
       </c>
       <c r="J22" t="n">
-        <v>29</v>
+        <v>125.9</v>
       </c>
       <c r="K22" t="n">
-        <v>25</v>
+        <v>110.7</v>
       </c>
       <c r="L22" t="n">
-        <v>23</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>21</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="N22" t="n">
-        <v>19</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="O22" t="n">
-        <v>18</v>
+        <v>78.8</v>
       </c>
       <c r="P22" t="n">
-        <v>17</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="Q22" t="n">
-        <v>11</v>
+        <v>49.7</v>
       </c>
       <c r="R22" t="n">
-        <v>9</v>
+        <v>39.3</v>
       </c>
       <c r="S22" t="n">
-        <v>8</v>
+        <v>33.3</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>29.2</v>
       </c>
       <c r="U22" t="n">
-        <v>6</v>
+        <v>26.3</v>
       </c>
       <c r="V22" t="n">
-        <v>5</v>
+        <v>24.1</v>
       </c>
       <c r="W22" t="n">
-        <v>5</v>
+        <v>22.3</v>
       </c>
       <c r="X22" t="n">
-        <v>5</v>
+        <v>20.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>19.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>4</v>
+        <v>18.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>4</v>
+        <v>17.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>4</v>
+        <v>16.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>4</v>
+        <v>16.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>14.9</v>
       </c>
       <c r="AF22" t="n">
-        <v>3</v>
+        <v>14.4</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>13.9</v>
       </c>
       <c r="AH22" t="n">
-        <v>3</v>
+        <v>13.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>3</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>90</v>
+        <v>385</v>
       </c>
       <c r="C23" t="n">
-        <v>81</v>
+        <v>346.5</v>
       </c>
       <c r="D23" t="n">
-        <v>74</v>
+        <v>316.9</v>
       </c>
       <c r="E23" t="n">
-        <v>68</v>
+        <v>293.4</v>
       </c>
       <c r="F23" t="n">
-        <v>64</v>
+        <v>274.1</v>
       </c>
       <c r="G23" t="n">
-        <v>60</v>
+        <v>257.9</v>
       </c>
       <c r="H23" t="n">
-        <v>40</v>
+        <v>172.7</v>
       </c>
       <c r="I23" t="n">
-        <v>32</v>
+        <v>136.6</v>
       </c>
       <c r="J23" t="n">
-        <v>27</v>
+        <v>115.7</v>
       </c>
       <c r="K23" t="n">
-        <v>24</v>
+        <v>101.7</v>
       </c>
       <c r="L23" t="n">
-        <v>21</v>
+        <v>91.5</v>
       </c>
       <c r="M23" t="n">
-        <v>19</v>
+        <v>83.7</v>
       </c>
       <c r="N23" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="P23" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="U23" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="Y23" t="n">
         <v>18</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Z23" t="n">
         <v>17</v>
       </c>
-      <c r="P23" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>11</v>
-      </c>
-      <c r="R23" t="n">
-        <v>8</v>
-      </c>
-      <c r="S23" t="n">
-        <v>7</v>
-      </c>
-      <c r="T23" t="n">
-        <v>6</v>
-      </c>
-      <c r="U23" t="n">
-        <v>6</v>
-      </c>
-      <c r="V23" t="n">
-        <v>5</v>
-      </c>
-      <c r="W23" t="n">
-        <v>5</v>
-      </c>
-      <c r="X23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>4</v>
-      </c>
       <c r="AA23" t="n">
-        <v>4</v>
+        <v>16.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>4</v>
+        <v>15.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>3</v>
+        <v>14.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>14.2</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>13.7</v>
       </c>
       <c r="AF23" t="n">
-        <v>3</v>
+        <v>13.2</v>
       </c>
       <c r="AG23" t="n">
-        <v>3</v>
+        <v>12.8</v>
       </c>
       <c r="AH23" t="n">
-        <v>3</v>
+        <v>12.4</v>
       </c>
       <c r="AI23" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>84</v>
+        <v>354.1</v>
       </c>
       <c r="C24" t="n">
-        <v>76</v>
+        <v>318.7</v>
       </c>
       <c r="D24" t="n">
-        <v>69</v>
+        <v>291.5</v>
       </c>
       <c r="E24" t="n">
-        <v>64</v>
+        <v>269.9</v>
       </c>
       <c r="F24" t="n">
-        <v>60</v>
+        <v>252.1</v>
       </c>
       <c r="G24" t="n">
-        <v>56</v>
+        <v>237.2</v>
       </c>
       <c r="H24" t="n">
-        <v>38</v>
+        <v>158.9</v>
       </c>
       <c r="I24" t="n">
-        <v>30</v>
+        <v>125.7</v>
       </c>
       <c r="J24" t="n">
-        <v>25</v>
+        <v>106.4</v>
       </c>
       <c r="K24" t="n">
-        <v>22</v>
+        <v>93.5</v>
       </c>
       <c r="L24" t="n">
-        <v>20</v>
+        <v>84.2</v>
       </c>
       <c r="M24" t="n">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="N24" t="n">
-        <v>17</v>
+        <v>71.3</v>
       </c>
       <c r="O24" t="n">
-        <v>16</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="P24" t="n">
-        <v>15</v>
+        <v>62.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="R24" t="n">
-        <v>8</v>
+        <v>33.2</v>
       </c>
       <c r="S24" t="n">
-        <v>7</v>
+        <v>28.1</v>
       </c>
       <c r="T24" t="n">
-        <v>6</v>
+        <v>24.7</v>
       </c>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>22.2</v>
       </c>
       <c r="V24" t="n">
-        <v>5</v>
+        <v>20.3</v>
       </c>
       <c r="W24" t="n">
-        <v>4</v>
+        <v>18.8</v>
       </c>
       <c r="X24" t="n">
-        <v>4</v>
+        <v>17.6</v>
       </c>
       <c r="Y24" t="n">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>4</v>
+        <v>15.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>4</v>
+        <v>14.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>3</v>
+        <v>14.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>3</v>
+        <v>13.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>13.1</v>
       </c>
       <c r="AE24" t="n">
-        <v>3</v>
+        <v>12.6</v>
       </c>
       <c r="AF24" t="n">
-        <v>3</v>
+        <v>12.2</v>
       </c>
       <c r="AG24" t="n">
-        <v>3</v>
+        <v>11.8</v>
       </c>
       <c r="AH24" t="n">
-        <v>3</v>
+        <v>11.4</v>
       </c>
       <c r="AI24" t="n">
-        <v>3</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B25" t="n">
-        <v>79</v>
+        <v>326.2</v>
       </c>
       <c r="C25" t="n">
-        <v>71</v>
+        <v>293.5</v>
       </c>
       <c r="D25" t="n">
-        <v>65</v>
+        <v>268.5</v>
       </c>
       <c r="E25" t="n">
-        <v>60</v>
+        <v>248.5</v>
       </c>
       <c r="F25" t="n">
-        <v>56</v>
+        <v>232.2</v>
       </c>
       <c r="G25" t="n">
-        <v>53</v>
+        <v>218.5</v>
       </c>
       <c r="H25" t="n">
-        <v>35</v>
+        <v>146.3</v>
       </c>
       <c r="I25" t="n">
-        <v>28</v>
+        <v>115.7</v>
       </c>
       <c r="J25" t="n">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="K25" t="n">
-        <v>21</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="L25" t="n">
-        <v>19</v>
+        <v>77.5</v>
       </c>
       <c r="M25" t="n">
-        <v>17</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="N25" t="n">
-        <v>16</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="O25" t="n">
-        <v>15</v>
+        <v>61.3</v>
       </c>
       <c r="P25" t="n">
-        <v>14</v>
+        <v>57.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>9</v>
+        <v>38.6</v>
       </c>
       <c r="R25" t="n">
-        <v>7</v>
+        <v>30.6</v>
       </c>
       <c r="S25" t="n">
-        <v>6</v>
+        <v>25.9</v>
       </c>
       <c r="T25" t="n">
-        <v>6</v>
+        <v>22.7</v>
       </c>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>20.5</v>
       </c>
       <c r="V25" t="n">
-        <v>5</v>
+        <v>18.7</v>
       </c>
       <c r="W25" t="n">
-        <v>4</v>
+        <v>17.3</v>
       </c>
       <c r="X25" t="n">
-        <v>4</v>
+        <v>16.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>15.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>3</v>
+        <v>14.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>3</v>
+        <v>13.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>3</v>
+        <v>13.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>12.1</v>
       </c>
       <c r="AE25" t="n">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="AF25" t="n">
-        <v>3</v>
+        <v>11.2</v>
       </c>
       <c r="AG25" t="n">
-        <v>3</v>
+        <v>10.8</v>
       </c>
       <c r="AH25" t="n">
-        <v>3</v>
+        <v>10.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>2</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>74</v>
+        <v>300.8</v>
       </c>
       <c r="C26" t="n">
-        <v>67</v>
+        <v>270.7</v>
       </c>
       <c r="D26" t="n">
-        <v>61</v>
+        <v>247.6</v>
       </c>
       <c r="E26" t="n">
-        <v>57</v>
+        <v>229.2</v>
       </c>
       <c r="F26" t="n">
-        <v>53</v>
+        <v>214.1</v>
       </c>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>201.5</v>
       </c>
       <c r="H26" t="n">
-        <v>33</v>
+        <v>134.9</v>
       </c>
       <c r="I26" t="n">
-        <v>26</v>
+        <v>106.7</v>
       </c>
       <c r="J26" t="n">
-        <v>22</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>20</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="L26" t="n">
-        <v>18</v>
+        <v>71.5</v>
       </c>
       <c r="M26" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="N26" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="P26" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="R26" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="T26" t="n">
+        <v>21</v>
+      </c>
+      <c r="U26" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="V26" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="W26" t="n">
         <v>16</v>
       </c>
-      <c r="N26" t="n">
-        <v>15</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="X26" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="Y26" t="n">
         <v>14</v>
       </c>
-      <c r="P26" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9</v>
-      </c>
-      <c r="R26" t="n">
-        <v>7</v>
-      </c>
-      <c r="S26" t="n">
-        <v>6</v>
-      </c>
-      <c r="T26" t="n">
-        <v>5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>4</v>
-      </c>
-      <c r="W26" t="n">
-        <v>4</v>
-      </c>
-      <c r="X26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>3</v>
-      </c>
       <c r="Z26" t="n">
-        <v>3</v>
+        <v>13.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>3</v>
+        <v>12.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>3</v>
+        <v>12.1</v>
       </c>
       <c r="AC26" t="n">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>11.1</v>
       </c>
       <c r="AE26" t="n">
-        <v>3</v>
+        <v>10.7</v>
       </c>
       <c r="AF26" t="n">
-        <v>3</v>
+        <v>10.3</v>
       </c>
       <c r="AG26" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AI26" t="n">
-        <v>2</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B27" t="n">
-        <v>70</v>
+        <v>277.8</v>
       </c>
       <c r="C27" t="n">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="D27" t="n">
-        <v>58</v>
+        <v>228.6</v>
       </c>
       <c r="E27" t="n">
-        <v>53</v>
+        <v>211.7</v>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>197.7</v>
       </c>
       <c r="G27" t="n">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="H27" t="n">
-        <v>31</v>
+        <v>124.6</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J27" t="n">
-        <v>21</v>
+        <v>83.5</v>
       </c>
       <c r="K27" t="n">
-        <v>18</v>
+        <v>73.3</v>
       </c>
       <c r="L27" t="n">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>60.4</v>
       </c>
       <c r="N27" t="n">
-        <v>14</v>
+        <v>55.9</v>
       </c>
       <c r="O27" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="R27" t="n">
+        <v>26</v>
+      </c>
+      <c r="S27" t="n">
+        <v>22</v>
+      </c>
+      <c r="T27" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="U27" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="W27" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="X27" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="Y27" t="n">
         <v>13</v>
       </c>
-      <c r="P27" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>8</v>
-      </c>
-      <c r="R27" t="n">
-        <v>7</v>
-      </c>
-      <c r="S27" t="n">
-        <v>6</v>
-      </c>
-      <c r="T27" t="n">
-        <v>5</v>
-      </c>
-      <c r="U27" t="n">
-        <v>4</v>
-      </c>
-      <c r="V27" t="n">
-        <v>4</v>
-      </c>
-      <c r="W27" t="n">
-        <v>4</v>
-      </c>
-      <c r="X27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>3</v>
-      </c>
       <c r="Z27" t="n">
-        <v>3</v>
+        <v>12.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>3</v>
+        <v>11.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>3</v>
+        <v>11.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>3</v>
+        <v>10.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>10.3</v>
       </c>
       <c r="AE27" t="n">
-        <v>2</v>
+        <v>9.9</v>
       </c>
       <c r="AF27" t="n">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH27" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
-        <v>2</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B28" t="n">
-        <v>66</v>
+        <v>256.8</v>
       </c>
       <c r="C28" t="n">
-        <v>59</v>
+        <v>231.1</v>
       </c>
       <c r="D28" t="n">
-        <v>54</v>
+        <v>211.4</v>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>195.7</v>
       </c>
       <c r="F28" t="n">
-        <v>47</v>
+        <v>182.8</v>
       </c>
       <c r="G28" t="n">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="H28" t="n">
-        <v>30</v>
+        <v>115.2</v>
       </c>
       <c r="I28" t="n">
-        <v>23</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>20</v>
+        <v>77.2</v>
       </c>
       <c r="K28" t="n">
-        <v>17</v>
+        <v>67.8</v>
       </c>
       <c r="L28" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="M28" t="n">
-        <v>14</v>
+        <v>55.8</v>
       </c>
       <c r="N28" t="n">
-        <v>13</v>
+        <v>51.7</v>
       </c>
       <c r="O28" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="P28" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="T28" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="U28" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="W28" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="X28" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="Y28" t="n">
         <v>12</v>
       </c>
-      <c r="P28" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="Z28" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AI28" t="n">
         <v>8</v>
-      </c>
-      <c r="R28" t="n">
-        <v>6</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
-      <c r="T28" t="n">
-        <v>5</v>
-      </c>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
-      <c r="V28" t="n">
-        <v>4</v>
-      </c>
-      <c r="W28" t="n">
-        <v>3</v>
-      </c>
-      <c r="X28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>62</v>
+        <v>237.7</v>
       </c>
       <c r="C29" t="n">
-        <v>56</v>
+        <v>213.9</v>
       </c>
       <c r="D29" t="n">
-        <v>51</v>
+        <v>195.7</v>
       </c>
       <c r="E29" t="n">
-        <v>47</v>
+        <v>181.1</v>
       </c>
       <c r="F29" t="n">
-        <v>44</v>
+        <v>169.2</v>
       </c>
       <c r="G29" t="n">
+        <v>159.2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>84.3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="K29" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="L29" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="N29" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="O29" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="P29" t="n">
         <v>42</v>
       </c>
-      <c r="H29" t="n">
-        <v>28</v>
-      </c>
-      <c r="I29" t="n">
-        <v>22</v>
-      </c>
-      <c r="J29" t="n">
-        <v>19</v>
-      </c>
-      <c r="K29" t="n">
-        <v>16</v>
-      </c>
-      <c r="L29" t="n">
-        <v>15</v>
-      </c>
-      <c r="M29" t="n">
-        <v>13</v>
-      </c>
-      <c r="N29" t="n">
-        <v>12</v>
-      </c>
-      <c r="O29" t="n">
-        <v>12</v>
-      </c>
-      <c r="P29" t="n">
-        <v>11</v>
-      </c>
       <c r="Q29" t="n">
-        <v>7</v>
+        <v>28.2</v>
       </c>
       <c r="R29" t="n">
-        <v>6</v>
+        <v>22.3</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>18.9</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>16.6</v>
       </c>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>14.9</v>
       </c>
       <c r="V29" t="n">
-        <v>4</v>
+        <v>13.6</v>
       </c>
       <c r="W29" t="n">
-        <v>3</v>
+        <v>12.6</v>
       </c>
       <c r="X29" t="n">
-        <v>3</v>
+        <v>11.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>3</v>
+        <v>11.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>3</v>
+        <v>10.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AB29" t="n">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>2</v>
+        <v>9.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE29" t="n">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG29" t="n">
-        <v>2</v>
+        <v>7.9</v>
       </c>
       <c r="AH29" t="n">
-        <v>2</v>
+        <v>7.7</v>
       </c>
       <c r="AI29" t="n">
-        <v>2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>59</v>
+        <v>220.3</v>
       </c>
       <c r="C30" t="n">
-        <v>53</v>
+        <v>198.2</v>
       </c>
       <c r="D30" t="n">
-        <v>48</v>
+        <v>181.3</v>
       </c>
       <c r="E30" t="n">
-        <v>45</v>
+        <v>167.8</v>
       </c>
       <c r="F30" t="n">
-        <v>42</v>
+        <v>156.8</v>
       </c>
       <c r="G30" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="I30" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="M30" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="N30" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="P30" t="n">
         <v>39</v>
       </c>
-      <c r="H30" t="n">
-        <v>26</v>
-      </c>
-      <c r="I30" t="n">
-        <v>21</v>
-      </c>
-      <c r="J30" t="n">
-        <v>18</v>
-      </c>
-      <c r="K30" t="n">
-        <v>15</v>
-      </c>
-      <c r="L30" t="n">
-        <v>14</v>
-      </c>
-      <c r="M30" t="n">
-        <v>13</v>
-      </c>
-      <c r="N30" t="n">
-        <v>12</v>
-      </c>
-      <c r="O30" t="n">
-        <v>11</v>
-      </c>
-      <c r="P30" t="n">
-        <v>10</v>
-      </c>
       <c r="Q30" t="n">
-        <v>7</v>
+        <v>26.1</v>
       </c>
       <c r="R30" t="n">
-        <v>5</v>
+        <v>20.6</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>17.5</v>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>15.4</v>
       </c>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>13.8</v>
       </c>
       <c r="V30" t="n">
-        <v>3</v>
+        <v>12.6</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>11.7</v>
       </c>
       <c r="X30" t="n">
-        <v>3</v>
+        <v>10.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>3</v>
+        <v>10.3</v>
       </c>
       <c r="Z30" t="n">
-        <v>3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA30" t="n">
-        <v>2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AB30" t="n">
-        <v>2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="AE30" t="n">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="AF30" t="n">
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="AG30" t="n">
-        <v>2</v>
+        <v>7.3</v>
       </c>
       <c r="AH30" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="AI30" t="n">
-        <v>2</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B31" t="n">
-        <v>55</v>
+        <v>204.3</v>
       </c>
       <c r="C31" t="n">
-        <v>50</v>
+        <v>183.9</v>
       </c>
       <c r="D31" t="n">
-        <v>45</v>
+        <v>168.2</v>
       </c>
       <c r="E31" t="n">
-        <v>42</v>
+        <v>155.7</v>
       </c>
       <c r="F31" t="n">
-        <v>39</v>
+        <v>145.4</v>
       </c>
       <c r="G31" t="n">
-        <v>37</v>
+        <v>136.8</v>
       </c>
       <c r="H31" t="n">
-        <v>25</v>
+        <v>91.7</v>
       </c>
       <c r="I31" t="n">
-        <v>20</v>
+        <v>72.5</v>
       </c>
       <c r="J31" t="n">
-        <v>17</v>
+        <v>61.4</v>
       </c>
       <c r="K31" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="L31" t="n">
-        <v>13</v>
+        <v>48.6</v>
       </c>
       <c r="M31" t="n">
-        <v>12</v>
+        <v>44.4</v>
       </c>
       <c r="N31" t="n">
-        <v>11</v>
+        <v>41.1</v>
       </c>
       <c r="O31" t="n">
-        <v>10</v>
+        <v>38.4</v>
       </c>
       <c r="P31" t="n">
-        <v>10</v>
+        <v>36.1</v>
       </c>
       <c r="Q31" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="T31" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="U31" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="V31" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="W31" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="X31" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF31" t="n">
         <v>7</v>
       </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
-      <c r="T31" t="n">
-        <v>4</v>
-      </c>
-      <c r="U31" t="n">
-        <v>3</v>
-      </c>
-      <c r="V31" t="n">
-        <v>3</v>
-      </c>
-      <c r="W31" t="n">
-        <v>3</v>
-      </c>
-      <c r="X31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>2</v>
-      </c>
       <c r="AG31" t="n">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="AH31" t="n">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="AI31" t="n">
-        <v>2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B32" t="n">
-        <v>52</v>
+        <v>189.8</v>
       </c>
       <c r="C32" t="n">
-        <v>47</v>
+        <v>170.8</v>
       </c>
       <c r="D32" t="n">
-        <v>43</v>
+        <v>156.2</v>
       </c>
       <c r="E32" t="n">
-        <v>40</v>
+        <v>144.6</v>
       </c>
       <c r="F32" t="n">
-        <v>37</v>
+        <v>135.1</v>
       </c>
       <c r="G32" t="n">
-        <v>35</v>
+        <v>127.1</v>
       </c>
       <c r="H32" t="n">
-        <v>23</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>18</v>
+        <v>67.3</v>
       </c>
       <c r="J32" t="n">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="K32" t="n">
-        <v>14</v>
+        <v>50.1</v>
       </c>
       <c r="L32" t="n">
-        <v>12</v>
+        <v>45.1</v>
       </c>
       <c r="M32" t="n">
-        <v>11</v>
+        <v>41.2</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>38.2</v>
       </c>
       <c r="O32" t="n">
-        <v>10</v>
+        <v>35.7</v>
       </c>
       <c r="P32" t="n">
-        <v>9</v>
+        <v>33.6</v>
       </c>
       <c r="Q32" t="n">
-        <v>6</v>
+        <v>22.5</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>17.8</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>15.1</v>
       </c>
       <c r="T32" t="n">
-        <v>4</v>
+        <v>13.2</v>
       </c>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>11.9</v>
       </c>
       <c r="V32" t="n">
-        <v>3</v>
+        <v>10.9</v>
       </c>
       <c r="W32" t="n">
-        <v>3</v>
+        <v>10.1</v>
       </c>
       <c r="X32" t="n">
-        <v>3</v>
+        <v>9.4</v>
       </c>
       <c r="Y32" t="n">
-        <v>2</v>
+        <v>8.9</v>
       </c>
       <c r="Z32" t="n">
-        <v>2</v>
+        <v>8.4</v>
       </c>
       <c r="AA32" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB32" t="n">
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>2</v>
+        <v>7.3</v>
       </c>
       <c r="AD32" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE32" t="n">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="AF32" t="n">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>2</v>
+        <v>6.3</v>
       </c>
       <c r="AH32" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="AI32" t="n">
-        <v>2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B33" t="n">
-        <v>49</v>
+        <v>176.4</v>
       </c>
       <c r="C33" t="n">
-        <v>44</v>
+        <v>158.8</v>
       </c>
       <c r="D33" t="n">
-        <v>41</v>
+        <v>145.2</v>
       </c>
       <c r="E33" t="n">
-        <v>38</v>
+        <v>134.4</v>
       </c>
       <c r="F33" t="n">
-        <v>35</v>
+        <v>125.6</v>
       </c>
       <c r="G33" t="n">
-        <v>33</v>
+        <v>118.2</v>
       </c>
       <c r="H33" t="n">
-        <v>22</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>17</v>
+        <v>62.6</v>
       </c>
       <c r="J33" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="K33" t="n">
-        <v>13</v>
+        <v>46.6</v>
       </c>
       <c r="L33" t="n">
-        <v>12</v>
+        <v>41.9</v>
       </c>
       <c r="M33" t="n">
-        <v>11</v>
+        <v>38.3</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
+        <v>35.5</v>
       </c>
       <c r="O33" t="n">
-        <v>9</v>
+        <v>33.2</v>
       </c>
       <c r="P33" t="n">
-        <v>9</v>
+        <v>31.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>6</v>
+        <v>20.9</v>
       </c>
       <c r="R33" t="n">
-        <v>5</v>
+        <v>16.5</v>
       </c>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="T33" t="n">
-        <v>3</v>
+        <v>12.3</v>
       </c>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>11.1</v>
       </c>
       <c r="V33" t="n">
-        <v>3</v>
+        <v>10.1</v>
       </c>
       <c r="W33" t="n">
-        <v>3</v>
+        <v>9.4</v>
       </c>
       <c r="X33" t="n">
-        <v>2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y33" t="n">
-        <v>2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z33" t="n">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="AA33" t="n">
-        <v>2</v>
+        <v>7.4</v>
       </c>
       <c r="AB33" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="AC33" t="n">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>2</v>
+        <v>6.3</v>
       </c>
       <c r="AF33" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="AG33" t="n">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="AH33" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="AI33" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>47</v>
+        <v>164.2</v>
       </c>
       <c r="C34" t="n">
-        <v>42</v>
+        <v>147.7</v>
       </c>
       <c r="D34" t="n">
-        <v>38</v>
+        <v>135.1</v>
       </c>
       <c r="E34" t="n">
-        <v>35</v>
+        <v>125.1</v>
       </c>
       <c r="F34" t="n">
+        <v>116.9</v>
+      </c>
+      <c r="G34" t="n">
+        <v>110</v>
+      </c>
+      <c r="H34" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="I34" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>39</v>
+      </c>
+      <c r="M34" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="N34" t="n">
         <v>33</v>
       </c>
-      <c r="G34" t="n">
-        <v>31</v>
-      </c>
-      <c r="H34" t="n">
-        <v>21</v>
-      </c>
-      <c r="I34" t="n">
-        <v>17</v>
-      </c>
-      <c r="J34" t="n">
-        <v>14</v>
-      </c>
-      <c r="K34" t="n">
-        <v>12</v>
-      </c>
-      <c r="L34" t="n">
-        <v>11</v>
-      </c>
-      <c r="M34" t="n">
-        <v>10</v>
-      </c>
-      <c r="N34" t="n">
-        <v>9</v>
-      </c>
       <c r="O34" t="n">
-        <v>9</v>
+        <v>30.9</v>
       </c>
       <c r="P34" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="Q34" t="n">
-        <v>6</v>
+        <v>19.4</v>
       </c>
       <c r="R34" t="n">
-        <v>4</v>
+        <v>15.4</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T34" t="n">
-        <v>3</v>
+        <v>11.4</v>
       </c>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>10.3</v>
       </c>
       <c r="V34" t="n">
-        <v>3</v>
+        <v>9.4</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X34" t="n">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="Y34" t="n">
-        <v>2</v>
+        <v>7.7</v>
       </c>
       <c r="Z34" t="n">
-        <v>2</v>
+        <v>7.3</v>
       </c>
       <c r="AA34" t="n">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="AB34" t="n">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>2</v>
+        <v>6.3</v>
       </c>
       <c r="AD34" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="AE34" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="AF34" t="n">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="AG34" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="AI34" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B35" t="n">
-        <v>44</v>
+        <v>152.9</v>
       </c>
       <c r="C35" t="n">
-        <v>40</v>
+        <v>137.6</v>
       </c>
       <c r="D35" t="n">
-        <v>36</v>
+        <v>125.9</v>
       </c>
       <c r="E35" t="n">
-        <v>34</v>
+        <v>116.5</v>
       </c>
       <c r="F35" t="n">
-        <v>31</v>
+        <v>108.9</v>
       </c>
       <c r="G35" t="n">
-        <v>29</v>
+        <v>102.4</v>
       </c>
       <c r="H35" t="n">
-        <v>20</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>16</v>
+        <v>54.3</v>
       </c>
       <c r="J35" t="n">
-        <v>13</v>
+        <v>45.9</v>
       </c>
       <c r="K35" t="n">
-        <v>12</v>
+        <v>40.4</v>
       </c>
       <c r="L35" t="n">
-        <v>10</v>
+        <v>36.3</v>
       </c>
       <c r="M35" t="n">
-        <v>10</v>
+        <v>33.2</v>
       </c>
       <c r="N35" t="n">
-        <v>9</v>
+        <v>30.8</v>
       </c>
       <c r="O35" t="n">
-        <v>8</v>
+        <v>28.7</v>
       </c>
       <c r="P35" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>18.1</v>
       </c>
       <c r="R35" t="n">
-        <v>4</v>
+        <v>14.3</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>12.1</v>
       </c>
       <c r="T35" t="n">
-        <v>3</v>
+        <v>10.7</v>
       </c>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>9.6</v>
       </c>
       <c r="V35" t="n">
-        <v>3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W35" t="n">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="X35" t="n">
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="Y35" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="Z35" t="n">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="AA35" t="n">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="AB35" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="AC35" t="n">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="AD35" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="AE35" t="n">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="AF35" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="AG35" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="AH35" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="AI35" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B36" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>128.3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="E36" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="H36" t="n">
+        <v>64</v>
+      </c>
+      <c r="I36" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="K36" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L36" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="M36" t="n">
+        <v>31</v>
+      </c>
+      <c r="N36" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="O36" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="P36" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="R36" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="T36" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="U36" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="V36" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W36" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X36" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B37" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="E37" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="G37" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="H37" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="I37" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>40</v>
+      </c>
+      <c r="K37" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="M37" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="N37" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="O37" t="n">
+        <v>25</v>
+      </c>
+      <c r="P37" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="R37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="T37" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="U37" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="W37" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B38" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="G38" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="I38" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K38" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="L38" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>27</v>
+      </c>
+      <c r="N38" t="n">
+        <v>25</v>
+      </c>
+      <c r="O38" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="P38" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="R38" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="S38" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="T38" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="U38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V38" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X38" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B39" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="G39" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="H39" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="K39" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L39" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="M39" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="N39" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="O39" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="P39" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="R39" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="S39" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="T39" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="W39" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X39" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B40" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="H40" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="I40" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="K40" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L40" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="M40" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="N40" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="O40" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="P40" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="R40" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="T40" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="U40" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="V40" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="W40" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X40" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B41" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="C41" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="E41" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K41" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L41" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="O41" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="P41" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="T41" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="U41" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="W41" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X41" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B42" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="E42" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="F42" t="n">
+        <v>68</v>
+      </c>
+      <c r="G42" t="n">
+        <v>64</v>
+      </c>
+      <c r="H42" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="I42" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K42" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="L42" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M42" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="N42" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>18</v>
+      </c>
+      <c r="P42" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="S42" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T42" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U42" t="n">
+        <v>6</v>
+      </c>
+      <c r="V42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W42" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B43" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="C43" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="D43" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="G43" t="n">
+        <v>60</v>
+      </c>
+      <c r="H43" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K43" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="L43" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="M43" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>18</v>
+      </c>
+      <c r="O43" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="P43" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="R43" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U43" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="V43" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="W43" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B44" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="C44" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="G44" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="I44" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>20</v>
+      </c>
+      <c r="M44" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="O44" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="P44" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>10</v>
+      </c>
+      <c r="R44" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="S44" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="T44" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U44" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B45" t="n">
+        <v>79</v>
+      </c>
+      <c r="C45" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="D45" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="G45" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="H45" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>28</v>
+      </c>
+      <c r="J45" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="K45" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L45" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="M45" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="N45" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="O45" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="P45" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="T45" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B46" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="G46" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="H46" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="M46" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>15</v>
+      </c>
+      <c r="O46" t="n">
+        <v>14</v>
+      </c>
+      <c r="P46" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T46" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U46" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="V46" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W46" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="X46" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B47" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="C47" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="D47" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="E47" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="G47" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="H47" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="I47" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>21</v>
+      </c>
+      <c r="K47" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L47" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="M47" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T47" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U47" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>4</v>
+      </c>
+      <c r="W47" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B48" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="C48" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="G48" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="K48" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="L48" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="M48" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="O48" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="P48" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T48" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U48" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B49" t="n">
+        <v>62</v>
+      </c>
+      <c r="C49" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="G49" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="H49" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="I49" t="n">
+        <v>22</v>
+      </c>
+      <c r="J49" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K49" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="L49" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M49" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="N49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O49" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="P49" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U49" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="X49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B50" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="D50" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="F50" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="G50" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="K50" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L50" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="M50" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="N50" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="O50" t="n">
+        <v>11</v>
+      </c>
+      <c r="P50" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T50" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U50" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W50" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B51" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D51" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="E51" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>37</v>
+      </c>
+      <c r="H51" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="I51" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J51" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K51" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L51" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>12</v>
+      </c>
+      <c r="N51" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="P51" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T51" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U51" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W51" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B52" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D52" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="E52" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="H52" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="I52" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K52" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L52" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M52" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="N52" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O52" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="P52" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U52" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3</v>
+      </c>
+      <c r="W52" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B53" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>33</v>
+      </c>
+      <c r="H53" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K53" t="n">
+        <v>13</v>
+      </c>
+      <c r="L53" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="M53" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="N53" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="O53" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="P53" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U53" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W53" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B54" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C54" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D54" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="I54" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>14</v>
+      </c>
+      <c r="K54" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L54" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="O54" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="P54" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B55" t="n">
+        <v>44</v>
+      </c>
+      <c r="C55" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="G55" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="H55" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="I55" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="L55" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="M55" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="O55" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="P55" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T55" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B36" t="n">
-        <v>42</v>
-      </c>
-      <c r="C36" t="n">
-        <v>38</v>
-      </c>
-      <c r="D36" t="n">
-        <v>34</v>
-      </c>
-      <c r="E36" t="n">
-        <v>32</v>
-      </c>
-      <c r="F36" t="n">
-        <v>30</v>
-      </c>
-      <c r="G36" t="n">
-        <v>28</v>
-      </c>
-      <c r="H36" t="n">
-        <v>19</v>
-      </c>
-      <c r="I36" t="n">
-        <v>15</v>
-      </c>
-      <c r="J36" t="n">
-        <v>13</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="B56" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C56" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F56" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="G56" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="H56" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="I56" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J56" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K56" t="n">
         <v>11</v>
       </c>
-      <c r="L36" t="n">
-        <v>10</v>
-      </c>
-      <c r="M36" t="n">
-        <v>9</v>
-      </c>
-      <c r="N36" t="n">
-        <v>8</v>
-      </c>
-      <c r="O36" t="n">
-        <v>8</v>
-      </c>
-      <c r="P36" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3</v>
-      </c>
-      <c r="T36" t="n">
-        <v>3</v>
-      </c>
-      <c r="U36" t="n">
-        <v>3</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2</v>
-      </c>
-      <c r="W36" t="n">
-        <v>2</v>
-      </c>
-      <c r="X36" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>1</v>
+      <c r="L56" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="M56" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O56" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="P56" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
